--- a/sizing calculator max_tons.xlsx
+++ b/sizing calculator max_tons.xlsx
@@ -5,24 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\ORLA_Lander_Mission_Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE5A73-0696-48B0-9482-73A23827F555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE9CBE0-597E-4AFB-AAE7-A255B262FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="6" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Lander ss sizing" sheetId="7" r:id="rId7"/>
+    <sheet name="Sizing Calcs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sizing Results" sheetId="3" r:id="rId2"/>
+    <sheet name="Pairwise comparison" sheetId="4" r:id="rId3"/>
+    <sheet name="Trade off Scores" sheetId="5" r:id="rId4"/>
+    <sheet name="Launcher Cost DB" sheetId="6" r:id="rId5"/>
+    <sheet name="Lander ss sizing" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -307,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="249">
   <si>
     <t>TV design ref</t>
   </si>
@@ -357,58 +355,13 @@
     <t>TV dry mass</t>
   </si>
   <si>
-    <t>Characteristic energy of Upper Stages</t>
-  </si>
-  <si>
-    <t>Stage name</t>
-  </si>
-  <si>
-    <t>Dry mass</t>
-  </si>
-  <si>
-    <t>prop mass</t>
-  </si>
-  <si>
     <t>Prop</t>
   </si>
   <si>
-    <t>example payload kg</t>
-  </si>
-  <si>
-    <t>corresponding dV [m/s]</t>
-  </si>
-  <si>
-    <t>Characteristic Energy</t>
-  </si>
-  <si>
     <t>sources</t>
   </si>
   <si>
-    <t>DCSS 5m</t>
-  </si>
-  <si>
     <t>LOX/LH2</t>
-  </si>
-  <si>
-    <t>Delta IV payload planners guide</t>
-  </si>
-  <si>
-    <t>Centaur</t>
-  </si>
-  <si>
-    <t>AtlasV user guide</t>
-  </si>
-  <si>
-    <t>LOX/RP1</t>
-  </si>
-  <si>
-    <t>Starlink launch on 11/11/2019 Telemetry And Spaceflight Insider</t>
-  </si>
-  <si>
-    <t>Ariane 5 2S</t>
-  </si>
-  <si>
-    <t>VA237 Telemetry and Ariane 5 User Manual</t>
   </si>
   <si>
     <t>TV prop req</t>
@@ -1126,19 +1079,13 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1174,7 +1121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1184,12 +1131,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1274,36 +1215,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1458,7 +1369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1470,35 +1381,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,32 +1388,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1545,128 +1427,128 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1678,25 +1560,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1707,6 +1586,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2037,7 +1919,7 @@
   <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:M22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,393 +1954,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="J1" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="Q1" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="W1" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AC1" s="101" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="103"/>
+      <c r="D1" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="J1" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="Q1" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="W1" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AC1" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="91"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>125</v>
+      <c r="A2" s="30" t="s">
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>126</v>
+      <c r="A3" s="36" t="s">
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="17">
+        <v>178</v>
+      </c>
+      <c r="G3" s="6">
         <f>G7</f>
         <v>29253.977715621993</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M3" s="17">
+        <v>178</v>
+      </c>
+      <c r="M3" s="6">
         <f>M11+M17</f>
         <v>20656.024254389882</v>
       </c>
       <c r="Q3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="T3" s="17">
+        <v>178</v>
+      </c>
+      <c r="T3" s="6">
         <f>T11+T22+T28</f>
         <v>22534.729184202421</v>
       </c>
       <c r="W3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z3" s="17">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="6">
         <f>Z11+Z17</f>
         <v>12234.376322311724</v>
       </c>
       <c r="AC3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AD3" s="1"/>
-      <c r="AF3" s="17"/>
+      <c r="AF3" s="6"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" s="17">
+        <v>179</v>
+      </c>
+      <c r="G4" s="6">
         <f>G8+G11</f>
         <v>659038.59105931455</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M4" s="17">
+        <v>179</v>
+      </c>
+      <c r="M4" s="6">
         <f>M14+M16</f>
         <v>119200.59036120269</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="T4" s="17">
+        <v>179</v>
+      </c>
+      <c r="T4" s="6">
         <f>T27+T15</f>
         <v>119200.59036120269</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z4" s="17">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="6">
         <f>Z14+Z16</f>
         <v>13606.060618403186</v>
       </c>
-      <c r="AD4" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="43">
+      <c r="AD4" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="32">
         <v>21000</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
         <v>63800</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>63800</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="T5" s="2">
         <v>63800</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="Y5" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="Z5" s="2">
-        <f>Sheet6!E7</f>
+        <f>'Launcher Cost DB'!E7</f>
         <v>18831</v>
       </c>
       <c r="AD5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="AE5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2">
         <v>63800</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>63800</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="T6" s="2">
         <v>63800</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="Y6" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="Z6" s="2">
-        <f>Sheet6!E7</f>
+        <f>'Launcher Cost DB'!E7</f>
         <v>18831</v>
       </c>
-      <c r="AC6" s="23" t="s">
+      <c r="AC6" s="12" t="s">
         <v>2</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF6" s="32">
+        <v>87</v>
+      </c>
+      <c r="AF6" s="21">
         <v>3900</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="22">
+      <c r="F7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11">
         <f>G8/2.1809</f>
         <v>29253.977715621993</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="27" t="s">
+      <c r="L7" s="10"/>
+      <c r="M7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" s="20" t="s">
+      <c r="Q7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="S7" s="21"/>
-      <c r="T7" s="27" t="s">
+      <c r="S7" s="10"/>
+      <c r="T7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="X7" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC7" s="23"/>
+      <c r="W7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC7" s="12"/>
       <c r="AD7" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AE7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF7" s="32">
+        <v>87</v>
+      </c>
+      <c r="AF7" s="21">
         <v>92670</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D8" s="23"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="6">
         <f>G6</f>
         <v>63800</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="42">
+      <c r="L8" s="35"/>
+      <c r="M8" s="31">
         <v>292000000000</v>
       </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="44" t="s">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="42">
+      <c r="S8" s="35"/>
+      <c r="T8" s="31">
         <v>292000000000</v>
       </c>
-      <c r="W8" s="23"/>
-      <c r="X8" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="42">
+      <c r="W8" s="12"/>
+      <c r="X8" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="31">
         <v>131000000000</v>
       </c>
-      <c r="AC8" s="23"/>
+      <c r="AC8" s="12"/>
       <c r="AD8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF8" s="32">
+        <v>83</v>
+      </c>
+      <c r="AF8" s="21">
         <f>AF7+AF6+AF4</f>
         <v>117570</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="23"/>
-      <c r="E9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="D9" s="12"/>
+      <c r="E9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="6">
         <v>9060</v>
       </c>
       <c r="J9" s="3"/>
@@ -2466,45 +2348,45 @@
         <v>5</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="17">
+        <v>26</v>
+      </c>
+      <c r="M9" s="6">
         <v>3800</v>
       </c>
-      <c r="Q9" s="23"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" s="17">
+        <v>26</v>
+      </c>
+      <c r="T9" s="6">
         <v>3800</v>
       </c>
-      <c r="W9" s="23"/>
+      <c r="W9" s="12"/>
       <c r="X9" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="Z9" s="2">
         <v>3800</v>
       </c>
-      <c r="AC9" s="23"/>
+      <c r="AC9" s="12"/>
       <c r="AD9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF9" s="32">
+        <v>89</v>
+      </c>
+      <c r="AF9" s="21">
         <v>3800</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D10" s="23"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="17">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6">
         <v>450</v>
       </c>
       <c r="J10" s="3"/>
@@ -2512,44 +2394,44 @@
         <v>14</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="17">
+      <c r="M10" s="6">
         <f>2*M8/M9^2</f>
         <v>40443.213296398892</v>
       </c>
-      <c r="Q10" s="23"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S10" s="2"/>
-      <c r="T10" s="17">
+      <c r="T10" s="6">
         <f>2*T8/T9^2</f>
         <v>40443.213296398892</v>
       </c>
-      <c r="W10" s="23"/>
+      <c r="W10" s="12"/>
       <c r="X10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z10" s="17">
+        <v>73</v>
+      </c>
+      <c r="Z10" s="6">
         <f>2*Z8/(Z9^2)</f>
         <v>18144.044321329638</v>
       </c>
-      <c r="AC10" s="23"/>
+      <c r="AC10" s="12"/>
       <c r="AD10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF10" s="32">
+        <v>78</v>
+      </c>
+      <c r="AF10" s="21">
         <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="23"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="17">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6">
         <f>0.95*EXP((G9)/(G10*9.81))*(G8+G7)-(G8+G7)</f>
         <v>595238.59105931455</v>
       </c>
@@ -2558,42 +2440,42 @@
         <v>15</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="17">
+      <c r="M11" s="6">
         <v>3900</v>
       </c>
-      <c r="Q11" s="23"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S11" s="2"/>
-      <c r="T11" s="17">
+      <c r="T11" s="6">
         <v>3900</v>
       </c>
-      <c r="W11" s="23"/>
+      <c r="W11" s="12"/>
       <c r="X11" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="Z11" s="2">
         <v>7230</v>
       </c>
-      <c r="AC11" s="39"/>
+      <c r="AC11" s="28"/>
       <c r="AD11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF11" s="36">
+        <v>34</v>
+      </c>
+      <c r="AF11" s="25">
         <f>0.5*(AF6+AF4)*AF9^2</f>
         <v>179778000000</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D12" s="23"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="17">
+        <v>63</v>
+      </c>
+      <c r="G12" s="6">
         <f>G11/3.231</f>
         <v>184227.35718332237</v>
       </c>
@@ -2602,49 +2484,49 @@
         <v>7</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="17">
+      <c r="M12" s="6">
         <f>M10-M11</f>
         <v>36543.213296398892</v>
       </c>
       <c r="O12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q12" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="Q12" s="12"/>
       <c r="R12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T12" s="17">
+        <v>42</v>
+      </c>
+      <c r="T12" s="6">
         <v>1300</v>
       </c>
-      <c r="W12" s="23"/>
+      <c r="W12" s="12"/>
       <c r="X12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z12" s="17">
+        <v>75</v>
+      </c>
+      <c r="Z12" s="6">
         <f>Z10-Z11</f>
         <v>10914.044321329638</v>
       </c>
-      <c r="AC12" s="19" t="s">
+      <c r="AC12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AD12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="34">
+      <c r="AD12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="23">
         <f>AF4</f>
         <v>21000</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="23"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="17">
+        <v>31</v>
+      </c>
+      <c r="G13" s="6">
         <f>0.95*EXP((G9)/(G10*9.81))*(G8+G12)-(G8+G12)</f>
         <v>1586557.1602446502</v>
       </c>
@@ -2653,192 +2535,192 @@
         <v>4</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="17">
+      <c r="M13" s="6">
         <v>348</v>
       </c>
       <c r="O13" s="3">
         <v>9060</v>
       </c>
-      <c r="Q13" s="23"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S13" s="2"/>
-      <c r="T13" s="17">
+      <c r="T13" s="6">
         <f>T10-T11</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="W13" s="23"/>
+      <c r="W13" s="12"/>
       <c r="X13" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Z13" s="2">
         <v>2800</v>
       </c>
-      <c r="AC13" s="23"/>
+      <c r="AC13" s="12"/>
       <c r="AD13" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF13" s="32">
+        <v>214</v>
+      </c>
+      <c r="AF13" s="21">
         <f>0.1484*AF12</f>
         <v>3116.4</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D14" s="23"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="17">
+        <v>62</v>
+      </c>
+      <c r="G14" s="6">
         <f>G13/3.231</f>
         <v>491042.14182749932</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="17">
+      <c r="M14" s="6">
         <f>EXP(M9/($M$13*9.81))*(M10) - (M10)</f>
         <v>82657.37706480379</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="6">
         <f>2*M8/O13^2</f>
         <v>7114.6976984440253</v>
       </c>
-      <c r="Q14" s="23"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="S14" s="2"/>
-      <c r="T14" s="17">
+      <c r="T14" s="6">
         <v>348</v>
       </c>
-      <c r="W14" s="23"/>
+      <c r="W14" s="12"/>
       <c r="X14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z14" s="32">
+        <v>76</v>
+      </c>
+      <c r="Z14" s="21">
         <f>EXP((Z9)/(2800*9.81))*(Z10)-(Z10)</f>
         <v>2692.0162970735473</v>
       </c>
-      <c r="AC14" s="23"/>
+      <c r="AC14" s="12"/>
       <c r="AD14" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="AE14" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF14" s="32">
+        <v>214</v>
+      </c>
+      <c r="AF14" s="21">
         <f>AF13*2.0251</f>
         <v>6311.0216400000008</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="23"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="17">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6">
         <f>0.95*EXP((G9)/(G10*9.81))*(G8+G14)-(G8+G14)</f>
         <v>3549159.9915377731</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="26">
+      <c r="J15" s="27"/>
+      <c r="K15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="15">
         <f>M14+M12+M11</f>
         <v>123100.59036120269</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="6">
         <v>3900</v>
       </c>
-      <c r="Q15" s="23"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S15" s="2"/>
-      <c r="T15" s="17">
+      <c r="T15" s="6">
         <f>EXP(T9/($M$13*9.81))*(T10) - (T10)</f>
         <v>82657.37706480379</v>
       </c>
-      <c r="W15" s="39"/>
-      <c r="X15" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="26">
+      <c r="W15" s="28"/>
+      <c r="X15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="15">
         <f>Z14+Z12+Z11</f>
         <v>20836.060618403186</v>
       </c>
-      <c r="AC15" s="23"/>
+      <c r="AC15" s="12"/>
       <c r="AD15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF15" s="32">
+        <v>89</v>
+      </c>
+      <c r="AF15" s="21">
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="39"/>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="26">
+      <c r="F16" s="17"/>
+      <c r="G16" s="15">
         <f>SUM(G11,G8,G7)</f>
         <v>688292.56877493649</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="11">
         <f>M12</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="6">
         <f>O14-O15</f>
         <v>3214.6976984440253</v>
       </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="28"/>
-      <c r="T16" s="26">
+      <c r="Q16" s="28"/>
+      <c r="R16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="17"/>
+      <c r="T16" s="15">
         <f>T15+T13+T11</f>
         <v>123100.59036120269</v>
       </c>
-      <c r="W16" s="19" t="s">
+      <c r="W16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="22">
+      <c r="X16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="11">
         <f>Z12</f>
         <v>10914.044321329638</v>
       </c>
-      <c r="AC16" s="23"/>
+      <c r="AC16" s="12"/>
       <c r="AD16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF16" s="32">
+        <v>78</v>
+      </c>
+      <c r="AF16" s="21">
         <v>450</v>
       </c>
     </row>
@@ -2848,43 +2730,43 @@
         <v>8</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="17">
+        <v>20</v>
+      </c>
+      <c r="M17" s="6">
         <f>M16/2.1809</f>
         <v>16756.024254389882</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="6">
         <v>348</v>
       </c>
-      <c r="Q17" s="19" t="s">
-        <v>54</v>
+      <c r="Q17" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
-      </c>
-      <c r="W17" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="W17" s="12"/>
       <c r="X17" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z17" s="17">
+        <v>80</v>
+      </c>
+      <c r="Z17" s="6">
         <f>Z16/2.1809</f>
         <v>5004.3763223117239</v>
       </c>
-      <c r="AC17" s="23"/>
+      <c r="AC17" s="12"/>
       <c r="AD17" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF17" s="32">
+        <v>90</v>
+      </c>
+      <c r="AF17" s="21">
         <f>1.11*EXP((AF15)/(AF16*9.81))*(AF14+AF13)-(AF14+AF13)</f>
         <v>9008.4480133912293</v>
       </c>
@@ -2895,39 +2777,39 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="17">
+        <v>18</v>
+      </c>
+      <c r="M18" s="6">
         <v>450</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="6">
         <f>EXP(O13/($M$13*9.81))*(O14) - (O14)</f>
         <v>93977.66524630526</v>
       </c>
-      <c r="Q18" s="23"/>
+      <c r="Q18" s="12"/>
       <c r="R18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T18" s="16">
+        <v>64</v>
+      </c>
+      <c r="T18" s="5">
         <f>0.5*(T19+T24)*T20^2</f>
         <v>31451202769.900978</v>
       </c>
-      <c r="W18" s="23"/>
+      <c r="W18" s="12"/>
       <c r="X18" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z18" s="17">
+        <v>18</v>
+      </c>
+      <c r="Z18" s="6">
         <v>450</v>
       </c>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="35">
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="24">
         <f>AF15^2*0.5*(AF14+AF13)</f>
         <v>29460692625</v>
       </c>
@@ -2938,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="17">
+        <v>21</v>
+      </c>
+      <c r="M19" s="6">
         <v>5000</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="6">
         <f>O18+O16+O15</f>
         <v>101092.36294474929</v>
       </c>
-      <c r="Q19" s="23"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T19" s="17">
+        <v>45</v>
+      </c>
+      <c r="T19" s="6">
         <f>T13</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="W19" s="23"/>
+      <c r="W19" s="12"/>
       <c r="X19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z19" s="17">
+        <v>71</v>
+      </c>
+      <c r="Z19" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -2969,31 +2851,31 @@
         <v>11</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" s="17">
+        <v>22</v>
+      </c>
+      <c r="M20" s="6">
         <f>0.95*EXP((M19)/(M18*9.81))*(M17+M16)-(M17+M16)</f>
         <v>103860.04567213666</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="6">
         <f>O16</f>
         <v>3214.6976984440253</v>
       </c>
-      <c r="Q20" s="23"/>
+      <c r="Q20" s="12"/>
       <c r="R20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
-      </c>
-      <c r="T20" s="17">
+        <v>41</v>
+      </c>
+      <c r="T20" s="6">
         <v>1280</v>
       </c>
-      <c r="W20" s="23"/>
+      <c r="W20" s="12"/>
       <c r="X20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z20" s="17">
+        <v>82</v>
+      </c>
+      <c r="Z20" s="6">
         <f>0.95*EXP((Z19)/(Z18*9.81))*(Z16+Z17) - (Z16+Z17)</f>
         <v>31018.97833907021</v>
       </c>
@@ -3001,197 +2883,197 @@
     <row r="21" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J21" s="3"/>
       <c r="K21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="16">
+        <v>38</v>
+      </c>
+      <c r="M21" s="5">
         <f>0.5*(M17+M16)*M19^2</f>
         <v>666240469384.85974</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="6">
         <f>O20/2.1809</f>
         <v>1474.0234299802951</v>
       </c>
-      <c r="Q21" s="23"/>
+      <c r="Q21" s="12"/>
       <c r="R21" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="T21" s="2">
         <v>348</v>
       </c>
-      <c r="W21" s="23"/>
+      <c r="W21" s="12"/>
       <c r="X21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z21" s="17">
+        <v>83</v>
+      </c>
+      <c r="Z21" s="6">
         <f>Z20+Z17+Z16</f>
         <v>46937.398982711573</v>
       </c>
     </row>
     <row r="22" spans="10:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J22" s="38"/>
-      <c r="K22" s="24" t="s">
+      <c r="J22" s="27"/>
+      <c r="K22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26">
+      <c r="L22" s="14"/>
+      <c r="M22" s="15">
         <f>SUM(M20,M17,M16)</f>
         <v>157159.28322292544</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="6">
         <v>450</v>
       </c>
-      <c r="Q22" s="23"/>
+      <c r="Q22" s="12"/>
       <c r="R22" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
-      </c>
-      <c r="T22" s="29">
+        <v>43</v>
+      </c>
+      <c r="T22" s="18">
         <f>(T11-T12)/((T15)/(EXP((T20)/(T21*9.81))*(T19+T11)-(T19+T11)))+T12</f>
         <v>1878.7049298125366</v>
       </c>
-      <c r="W22" s="39"/>
-      <c r="X22" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28">
+      <c r="W22" s="28"/>
+      <c r="X22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17">
         <f>Z19^2*0.5*(Z16+Z17)</f>
         <v>198980258045.51703</v>
       </c>
     </row>
     <row r="23" spans="10:32" x14ac:dyDescent="0.25">
-      <c r="O23" s="17">
+      <c r="O23" s="6">
         <v>5000</v>
       </c>
-      <c r="Q23" s="23"/>
+      <c r="Q23" s="12"/>
       <c r="R23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T23" s="29">
+        <v>47</v>
+      </c>
+      <c r="T23" s="18">
         <f>(T11-T12)/((T15)/(EXP((T20)/(T21*9.81))*(T19+T22)-(T19+T22)))+T12</f>
         <v>1849.7820691795162</v>
       </c>
     </row>
     <row r="24" spans="10:32" x14ac:dyDescent="0.25">
-      <c r="O24" s="17">
+      <c r="O24" s="6">
         <f>EXP((O23)/(O22*9.81))*(O21+O20)-(O21+O20)</f>
         <v>9864.188772578811</v>
       </c>
-      <c r="Q24" s="23"/>
+      <c r="Q24" s="12"/>
       <c r="R24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T24" s="29">
+        <v>48</v>
+      </c>
+      <c r="T24" s="18">
         <f>(T11-T12)/((T15)/(EXP((T20)/(T21*9.81))*(T19+T23)-(T19+T23)))+T12</f>
         <v>1849.3682098278878</v>
       </c>
     </row>
     <row r="25" spans="10:32" x14ac:dyDescent="0.25">
-      <c r="O25" s="17">
+      <c r="O25" s="6">
         <f>SUM(O24,O21,O20)</f>
         <v>14552.909901003131</v>
       </c>
-      <c r="Q25" s="23"/>
+      <c r="Q25" s="12"/>
       <c r="R25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T25" s="29">
+        <v>53</v>
+      </c>
+      <c r="T25" s="18">
         <f>(EXP((T20)/(T21*9.81))*(T19+T23)-(T19+T23))</f>
         <v>17465.128948907681</v>
       </c>
     </row>
     <row r="26" spans="10:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q26" s="39"/>
+      <c r="Q26" s="28"/>
       <c r="R26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T26" s="29">
+        <v>49</v>
+      </c>
+      <c r="T26" s="18">
         <f>T25+T24+T19</f>
         <v>55857.71045513446</v>
       </c>
     </row>
     <row r="27" spans="10:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q27" s="19" t="s">
+      <c r="Q27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="20" t="s">
+      <c r="R27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S27" s="27"/>
-      <c r="T27" s="22">
+      <c r="S27" s="16"/>
+      <c r="T27" s="11">
         <f>T19</f>
         <v>36543.213296398892</v>
       </c>
     </row>
     <row r="28" spans="10:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q28" s="23"/>
+      <c r="Q28" s="12"/>
       <c r="R28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T28" s="17">
+        <v>20</v>
+      </c>
+      <c r="T28" s="6">
         <f>T27/2.1809</f>
         <v>16756.024254389882</v>
       </c>
     </row>
     <row r="29" spans="10:32" x14ac:dyDescent="0.25">
-      <c r="Q29" s="23"/>
+      <c r="Q29" s="12"/>
       <c r="R29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T29" s="17">
+        <v>18</v>
+      </c>
+      <c r="T29" s="6">
         <v>450</v>
       </c>
     </row>
     <row r="30" spans="10:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q30" s="23"/>
+      <c r="Q30" s="12"/>
       <c r="R30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T30" s="17">
+        <v>55</v>
+      </c>
+      <c r="T30" s="6">
         <v>3800</v>
       </c>
     </row>
     <row r="31" spans="10:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q31" s="23"/>
+      <c r="Q31" s="12"/>
       <c r="R31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T31" s="17">
+        <v>22</v>
+      </c>
+      <c r="T31" s="6">
         <f>0.95*EXP((T30)/(T29*9.81))*(T27+T28)-(T27+T28)</f>
         <v>66453.412915555862</v>
       </c>
     </row>
     <row r="32" spans="10:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q32" s="23"/>
+      <c r="Q32" s="12"/>
       <c r="R32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T32" s="16">
+        <v>38</v>
+      </c>
+      <c r="T32" s="5">
         <f>0.5*(T27+T28)*T30^2</f>
         <v>384820495116.69495</v>
       </c>
     </row>
     <row r="33" spans="4:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q33" s="39"/>
-      <c r="R33" s="24" t="s">
+      <c r="Q33" s="28"/>
+      <c r="R33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="25"/>
-      <c r="T33" s="26">
+      <c r="S33" s="14"/>
+      <c r="T33" s="15">
         <f>SUM(T31,T27,T28)</f>
         <v>119752.65046634462</v>
       </c>
@@ -3201,133 +3083,133 @@
     <row r="42" spans="4:32" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="4:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="W44" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="100"/>
-      <c r="Z44" s="100"/>
-      <c r="AC44" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD44" s="100"/>
-      <c r="AE44" s="100"/>
-      <c r="AF44" s="100"/>
+      <c r="W44" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="88"/>
+      <c r="AC44" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD44" s="88"/>
+      <c r="AE44" s="88"/>
+      <c r="AF44" s="88"/>
     </row>
     <row r="45" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W45" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="J46" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="Q46" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="R46" s="99"/>
-      <c r="S46" s="99"/>
-      <c r="T46" s="99"/>
-      <c r="W46" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="X46" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="22">
+      <c r="D46" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="J46" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="Q46" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="92"/>
+      <c r="W46" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="X46" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="11">
         <f>Z20+Z14</f>
         <v>33710.994636143761</v>
       </c>
-      <c r="AC46" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD46" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="34">
+      <c r="AC46" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD46" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="23">
         <f>AF17+AF7</f>
         <v>101678.44801339123</v>
       </c>
     </row>
     <row r="47" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="Z47" s="2">
         <f>ROUNDUP(((Z11+Z14+Z17)/Z3), 0)</f>
         <v>2</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AF47" s="2">
         <f>ROUNDUP((AF6+AF14)/AF4, 0)</f>
@@ -3335,48 +3217,48 @@
       </c>
     </row>
     <row r="48" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="D48" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="22">
+      <c r="D48" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="11">
         <f>G11</f>
         <v>595238.59105931455</v>
       </c>
-      <c r="J48" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L48" s="27"/>
-      <c r="M48" s="22">
+      <c r="J48" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48" s="16"/>
+      <c r="M48" s="11">
         <f>M14+M20</f>
         <v>186517.42273694044</v>
       </c>
-      <c r="Q48" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="R48" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="S48" s="27"/>
-      <c r="T48" s="22">
+      <c r="Q48" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S48" s="16"/>
+      <c r="T48" s="11">
         <f>T15+T25+T31</f>
         <v>166575.91892926733</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z48" s="32">
+        <v>93</v>
+      </c>
+      <c r="Z48" s="21">
         <f>ROUNDUP((Z14+Z16)/Z3, 0)</f>
         <v>2</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="AF48" s="2">
         <v>1</v>
@@ -3384,66 +3266,66 @@
     </row>
     <row r="49" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="17">
+        <v>92</v>
+      </c>
+      <c r="G49" s="6">
         <f>ROUNDUP(G7/G5, 0)</f>
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="M49" s="2">
         <f>ROUNDUP((M11+M17)/M4, 0)</f>
         <v>1</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T49" s="17">
+        <v>92</v>
+      </c>
+      <c r="T49" s="6">
         <f>ROUNDUP((T11+T24+T28)/T3, 0)</f>
         <v>1</v>
       </c>
       <c r="W49">
         <v>1</v>
       </c>
-      <c r="X49" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="49">
+      <c r="X49" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="38">
         <f>Z16</f>
         <v>10914.044321329638</v>
       </c>
       <c r="AC49">
         <v>1</v>
       </c>
-      <c r="AD49" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE49" s="47"/>
-      <c r="AF49" s="50">
+      <c r="AD49" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE49" s="36"/>
+      <c r="AF49" s="39">
         <f>AF14</f>
         <v>6311.0216400000008</v>
       </c>
     </row>
     <row r="50" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="17">
+        <v>93</v>
+      </c>
+      <c r="G50" s="6">
         <f>ROUNDUP((G48+G8)/G6, 0)</f>
         <v>11</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="M50" s="2">
         <f>ROUNDUP((M16+M14)/M4, 0)</f>
         <v>1</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="T50" s="2">
         <f>ROUNDUP(T15/T4, 0)</f>
@@ -3452,22 +3334,22 @@
       <c r="W50">
         <v>2</v>
       </c>
-      <c r="X50" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y50" s="47"/>
-      <c r="Z50" s="50">
+      <c r="X50" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y50" s="36"/>
+      <c r="Z50" s="39">
         <f>Z49/Z48</f>
         <v>5457.0221606648192</v>
       </c>
       <c r="AC50">
         <v>2</v>
       </c>
-      <c r="AD50" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE50" s="47"/>
-      <c r="AF50" s="50">
+      <c r="AD50" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE50" s="36"/>
+      <c r="AF50" s="39">
         <f>AF14</f>
         <v>6311.0216400000008</v>
       </c>
@@ -3476,33 +3358,33 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="49">
+      <c r="E51" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="38">
         <f>G8</f>
         <v>63800</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
-      <c r="K51" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="L51" s="47"/>
-      <c r="M51" s="49">
+      <c r="K51" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="L51" s="36"/>
+      <c r="M51" s="38">
         <f>M16</f>
         <v>36543.213296398892</v>
       </c>
       <c r="Q51">
         <v>1</v>
       </c>
-      <c r="R51" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="S51" s="47"/>
-      <c r="T51" s="49">
+      <c r="R51" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="S51" s="36"/>
+      <c r="T51" s="38">
         <f>T27</f>
         <v>36543.213296398892</v>
       </c>
@@ -3510,9 +3392,9 @@
         <v>3</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z51" s="17">
+        <v>95</v>
+      </c>
+      <c r="Z51" s="6">
         <f>Z16</f>
         <v>10914.044321329638</v>
       </c>
@@ -3520,9 +3402,9 @@
         <v>3</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF51" s="32">
+        <v>95</v>
+      </c>
+      <c r="AF51" s="21">
         <f>AF50/AF48</f>
         <v>6311.0216400000008</v>
       </c>
@@ -3531,56 +3413,56 @@
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="E52" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" s="47"/>
-      <c r="G52" s="49">
+      <c r="E52" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="36"/>
+      <c r="G52" s="38">
         <f>G8</f>
         <v>63800</v>
       </c>
       <c r="J52">
         <v>2</v>
       </c>
-      <c r="K52" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="L52" s="47"/>
-      <c r="M52" s="49">
+      <c r="K52" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="L52" s="36"/>
+      <c r="M52" s="38">
         <f>M16</f>
         <v>36543.213296398892</v>
       </c>
       <c r="Q52">
         <v>2</v>
       </c>
-      <c r="R52" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="S52" s="47"/>
-      <c r="T52" s="49">
+      <c r="R52" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="S52" s="36"/>
+      <c r="T52" s="38">
         <f>T27</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="W52" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="X52" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y52" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z52" s="21">
+      <c r="W52" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="X52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y52" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z52" s="10">
         <v>3</v>
       </c>
-      <c r="AC52" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD52" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE52" s="27"/>
-      <c r="AF52" s="21">
+      <c r="AC52" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE52" s="16"/>
+      <c r="AF52" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3589,9 +3471,9 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G53" s="32">
+        <v>94</v>
+      </c>
+      <c r="G53" s="21">
         <f>G51/G50</f>
         <v>5800</v>
       </c>
@@ -3599,9 +3481,9 @@
         <v>3</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M53" s="32">
+        <v>94</v>
+      </c>
+      <c r="M53" s="21">
         <f>M51/M50</f>
         <v>36543.213296398892</v>
       </c>
@@ -3609,73 +3491,73 @@
         <v>3</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T53" s="32">
+        <v>95</v>
+      </c>
+      <c r="T53" s="21">
         <f>T52/T50</f>
         <v>36543.213296398892</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y53" s="31" t="s">
-        <v>121</v>
+        <v>102</v>
+      </c>
+      <c r="Y53" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="Z53" s="2">
         <v>3</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="AF53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="4:32" ht="75" x14ac:dyDescent="0.25">
-      <c r="D54" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="21">
+      <c r="D54" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="10">
         <v>11</v>
       </c>
-      <c r="J54" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="K54" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="L54" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="M54" s="21">
+      <c r="J54" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K54" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="L54" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="M54" s="10">
         <v>4</v>
       </c>
-      <c r="Q54" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="R54" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="S54" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="T54" s="21">
+      <c r="Q54" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="R54" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="S54" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="T54" s="10">
         <v>6</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="Z54" s="2">
         <v>1</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="AF54" s="2">
         <v>1</v>
@@ -3683,37 +3565,37 @@
     </row>
     <row r="55" spans="4:32" ht="60" x14ac:dyDescent="0.25">
       <c r="E55" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G55" s="2">
         <v>10</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L55" s="31" t="s">
-        <v>118</v>
+        <v>102</v>
+      </c>
+      <c r="L55" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="M55" s="2">
         <v>3</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S55" s="31" t="s">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="S55" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="T55" s="2">
         <v>4</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="Z55" s="2">
         <v>1</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="AF55" s="2">
         <v>0</v>
@@ -3721,75 +3603,75 @@
     </row>
     <row r="56" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="M56" s="2">
         <v>1</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="T56" s="2">
         <v>1</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G57" s="2">
         <v>0</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="Z58" s="2">
         <f>Z55+Z54+Z53+Z52</f>
         <v>8</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="AF58" s="2">
         <f>AF55+AF54+AF53+AF52</f>
@@ -3798,190 +3680,190 @@
     </row>
     <row r="59" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W59" s="28">
+        <v>112</v>
+      </c>
+      <c r="W59" s="17">
         <v>4</v>
       </c>
-      <c r="X59" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52">
+      <c r="X59" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y59" s="41"/>
+      <c r="Z59" s="41">
         <f>SUM(Z56:Z58)</f>
         <v>8</v>
       </c>
-      <c r="AC59" s="28">
+      <c r="AC59" s="17">
         <v>4</v>
       </c>
-      <c r="AD59" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="52">
+      <c r="AD59" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE59" s="41"/>
+      <c r="AF59" s="41">
         <f>SUM(AF56:AF58)</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G60" s="2">
         <f>G57+G56+G55+G54</f>
         <v>22</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="M60" s="2">
         <f>M57+M56+M55+M54</f>
         <v>8</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="T60" s="2">
         <f>T57+T56+T55+T54</f>
         <v>11</v>
       </c>
-      <c r="W60" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="X60" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y60" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z60" s="27">
+      <c r="W60" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="X60" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y60" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z60" s="16">
         <v>0.125</v>
       </c>
-      <c r="AC60" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD60" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE60" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF60" s="27">
+      <c r="AC60" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD60" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE60" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF60" s="16">
         <v>0.125</v>
       </c>
     </row>
     <row r="61" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="28">
+      <c r="D61" s="17">
         <v>4</v>
       </c>
-      <c r="E61" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52">
+      <c r="E61" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41">
         <f>SUM(G58:G60)</f>
         <v>22</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="17">
         <v>4</v>
       </c>
-      <c r="K61" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52">
+      <c r="K61" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41">
         <f>SUM(M58:M60)</f>
         <v>8</v>
       </c>
-      <c r="Q61" s="28">
+      <c r="Q61" s="17">
         <v>4</v>
       </c>
-      <c r="R61" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52">
+      <c r="R61" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="S61" s="41"/>
+      <c r="T61" s="41">
         <f>SUM(T58:T60)</f>
         <v>11</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y61" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z61" s="64">
+        <v>135</v>
+      </c>
+      <c r="Y61" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z61" s="53">
         <v>99</v>
       </c>
       <c r="AD61" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE61" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF61" s="64">
+        <v>135</v>
+      </c>
+      <c r="AE61" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF61" s="53">
         <v>99</v>
       </c>
     </row>
     <row r="62" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="D62" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="G62" s="57">
+      <c r="D62" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G62" s="46">
         <f>3/24</f>
         <v>0.125</v>
       </c>
-      <c r="J62" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="K62" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="L62" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="M62" s="27">
+      <c r="J62" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M62" s="16">
         <v>0.125</v>
       </c>
-      <c r="Q62" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="R62" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="S62" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="T62" s="27">
+      <c r="Q62" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="S62" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="T62" s="16">
         <v>0.125</v>
       </c>
-      <c r="X62" s="59" t="s">
-        <v>152</v>
+      <c r="X62" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="Y62" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="Z62">
         <f>Z60</f>
         <v>0.125</v>
       </c>
-      <c r="AD62" s="59" t="s">
-        <v>152</v>
+      <c r="AD62" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="AE62" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="AF62">
         <v>0.1</v>
@@ -3989,97 +3871,97 @@
     </row>
     <row r="63" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E63" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F63" t="s">
-        <v>159</v>
-      </c>
-      <c r="G63" s="63">
+        <v>144</v>
+      </c>
+      <c r="G63" s="52">
         <f>99</f>
         <v>99</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L63" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="M63" s="64">
+        <v>135</v>
+      </c>
+      <c r="L63" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="M63" s="53">
         <v>99</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="S63" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="T63" s="64">
+        <v>135</v>
+      </c>
+      <c r="S63" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="T63" s="53">
         <v>99</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="Y63" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="Z63">
         <v>270</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AE63" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="AF63">
         <v>3.04</v>
       </c>
     </row>
     <row r="64" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="E64" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="F64" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="G64" s="61">
+      <c r="E64" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" s="50">
         <f>G54*G62+(G48/G63/60/60/24)</f>
         <v>1.4445892479259392</v>
       </c>
-      <c r="K64" s="59" t="s">
-        <v>152</v>
+      <c r="K64" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="L64" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M64">
         <f>M62*2+(M14/M63/60/60/24)</f>
         <v>0.25966346065572432</v>
       </c>
-      <c r="R64" s="59" t="s">
-        <v>152</v>
+      <c r="R64" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="S64" t="s">
-        <v>161</v>
-      </c>
-      <c r="T64" s="58">
+        <v>146</v>
+      </c>
+      <c r="T64" s="47">
         <f>T62*2+(T15/T63/60/60/24)</f>
         <v>0.25966346065572432</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="Y64" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="Z64">
         <v>0.55000000000000004</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AE64" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="AF64">
         <f>0.1666</f>
@@ -4088,378 +3970,378 @@
     </row>
     <row r="65" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E65" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
-      </c>
-      <c r="G65" s="58">
+        <v>133</v>
+      </c>
+      <c r="G65" s="47">
         <v>5</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L65" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="M65">
         <v>5.0999999999999996</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="S65" t="s">
-        <v>172</v>
-      </c>
-      <c r="T65" s="58">
+        <v>157</v>
+      </c>
+      <c r="T65" s="47">
         <f>M65</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="X65" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y65" s="47"/>
-      <c r="Z65" s="47">
+      <c r="X65" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="36">
         <f>SUM(Z62:Z64)</f>
         <v>270.67500000000001</v>
       </c>
-      <c r="AD65" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE65" s="47"/>
-      <c r="AF65" s="47">
+      <c r="AD65" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE65" s="36"/>
+      <c r="AF65" s="36">
         <f>SUM(AF62:AF64)</f>
         <v>3.3066</v>
       </c>
     </row>
     <row r="66" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F66" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L66" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M66">
         <v>0.55000000000000004</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="S66" t="s">
-        <v>173</v>
-      </c>
-      <c r="T66" s="58">
+        <v>158</v>
+      </c>
+      <c r="T66" s="47">
         <f>M66+T62+(T31/T63/60/60/24)</f>
         <v>0.68276905781373409</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="Y66" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Z66">
         <f>Z64+Z60</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="AC66" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD66" s="56"/>
-      <c r="AE66" s="56"/>
-      <c r="AF66" s="56"/>
+      <c r="AC66" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD66" s="45"/>
+      <c r="AE66" s="45"/>
+      <c r="AF66" s="45"/>
     </row>
     <row r="67" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="E67" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="65">
+      <c r="E67" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="36"/>
+      <c r="G67" s="54">
         <f>SUM(G64:G66)</f>
         <v>6.444589247925939</v>
       </c>
-      <c r="K67" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47">
+      <c r="K67" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36">
         <f>SUM(M64:M66)</f>
         <v>5.9096634606557235</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="S67" t="s">
-        <v>170</v>
-      </c>
-      <c r="T67" s="58">
+        <v>155</v>
+      </c>
+      <c r="T67" s="47">
         <f>0.1666666</f>
         <v>0.1666666</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="Y67" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="Z67">
         <f>Z63</f>
         <v>270</v>
       </c>
-      <c r="AC67" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD67" s="27"/>
-      <c r="AE67" s="27"/>
-      <c r="AF67" s="87"/>
+      <c r="AC67" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD67" s="16"/>
+      <c r="AE67" s="16"/>
+      <c r="AF67" s="76"/>
     </row>
     <row r="68" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>165</v>
-      </c>
-      <c r="G68" s="58">
+        <v>150</v>
+      </c>
+      <c r="G68" s="47">
         <f>G65</f>
         <v>5</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L68" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="M68">
         <f>M66+M62</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="R68" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="S68" s="47"/>
-      <c r="T68" s="65">
+      <c r="R68" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="S68" s="36"/>
+      <c r="T68" s="54">
         <f>SUM(T64:T67)</f>
         <v>6.2090991184694575</v>
       </c>
-      <c r="X68" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y68" s="47"/>
-      <c r="Z68" s="47">
+      <c r="X68" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y68" s="36"/>
+      <c r="Z68" s="36">
         <f>SUM(Z65:Z67)</f>
         <v>541.35</v>
       </c>
-      <c r="AC68" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD68" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE68" s="89"/>
-      <c r="AF68" s="90"/>
+      <c r="AC68" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD68" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE68" s="78"/>
+      <c r="AF68" s="79"/>
     </row>
     <row r="69" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="28"/>
-      <c r="E69" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="F69" s="47"/>
-      <c r="G69" s="62">
+      <c r="D69" s="17"/>
+      <c r="E69" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" s="36"/>
+      <c r="G69" s="51">
         <f>SUM(G64:G68)</f>
         <v>17.88917849585188</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="L69" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="M69">
         <v>5</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="S69" t="s">
-        <v>175</v>
-      </c>
-      <c r="T69" s="58">
+        <v>160</v>
+      </c>
+      <c r="T69" s="47">
         <f>T67</f>
         <v>0.1666666</v>
       </c>
-      <c r="W69" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="X69" s="56"/>
-      <c r="Y69" s="56"/>
-      <c r="Z69" s="56"/>
+      <c r="W69" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="X69" s="45"/>
+      <c r="Y69" s="45"/>
+      <c r="Z69" s="45"/>
       <c r="AC69" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AF69" s="18"/>
+        <v>185</v>
+      </c>
+      <c r="AF69" s="7"/>
     </row>
     <row r="70" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52">
+      <c r="D70" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41">
         <f>SUM(M67+M68+M69)</f>
         <v>11.584663460655722</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="S70" t="s">
-        <v>171</v>
-      </c>
-      <c r="T70" s="58">
+        <v>156</v>
+      </c>
+      <c r="T70" s="47">
         <f>M66+T62</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="W70" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="27"/>
-      <c r="Z70" s="87"/>
+      <c r="W70" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="76"/>
       <c r="AC70" s="1"/>
       <c r="AD70" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF70" s="18"/>
+        <v>186</v>
+      </c>
+      <c r="AF70" s="7"/>
     </row>
     <row r="71" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="87"/>
-      <c r="J71" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
+      <c r="D71" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="76"/>
+      <c r="J71" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="K71" s="45"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
       <c r="R71" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="S71" t="s">
-        <v>165</v>
-      </c>
-      <c r="T71" s="58">
+        <v>150</v>
+      </c>
+      <c r="T71" s="47">
         <v>5</v>
       </c>
-      <c r="W71" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="X71" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y71" s="89"/>
-      <c r="Z71" s="90"/>
+      <c r="W71" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="X71" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y71" s="78"/>
+      <c r="Z71" s="79"/>
       <c r="AC71" s="1"/>
       <c r="AD71" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AE71" t="str">
         <f>AE4</f>
         <v>Falcon Heavy</v>
       </c>
-      <c r="AF71" s="18">
-        <f>Sheet6!F6</f>
+      <c r="AF71" s="7">
+        <f>'Launcher Cost DB'!F6</f>
         <v>2351.0971786833857</v>
       </c>
     </row>
     <row r="72" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E72" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="F72" s="89"/>
-      <c r="G72" s="90"/>
-      <c r="J72" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="87"/>
-      <c r="R72" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="S72" s="52"/>
-      <c r="T72" s="65">
+      <c r="D72" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" s="78"/>
+      <c r="G72" s="79"/>
+      <c r="J72" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="76"/>
+      <c r="R72" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="S72" s="41"/>
+      <c r="T72" s="54">
         <f>T68+T69+T70+T71</f>
         <v>12.050765718469457</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z72" s="18"/>
+        <v>185</v>
+      </c>
+      <c r="Z72" s="7"/>
       <c r="AC72" s="1"/>
       <c r="AD72" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF72" s="18">
+        <v>188</v>
+      </c>
+      <c r="AF72" s="7">
         <f>AF71*(AF4)</f>
         <v>49373040.752351098</v>
       </c>
     </row>
     <row r="73" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G73" s="18"/>
-      <c r="J73" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="K73" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="L73" s="89"/>
-      <c r="M73" s="90"/>
-      <c r="Q73" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="R73" s="56"/>
-      <c r="S73" s="56"/>
-      <c r="T73" s="56"/>
+        <v>185</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="J73" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="K73" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="L73" s="78"/>
+      <c r="M73" s="79"/>
+      <c r="Q73" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="R73" s="45"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="45"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z73" s="18"/>
+        <v>186</v>
+      </c>
+      <c r="Z73" s="7"/>
       <c r="AC73" s="1"/>
       <c r="AD73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF73" s="18">
+        <v>189</v>
+      </c>
+      <c r="AF73" s="7">
         <f>AF69+AF70+AF72</f>
         <v>49373040.752351098</v>
       </c>
@@ -4467,207 +4349,207 @@
     <row r="74" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G74" s="18"/>
+        <v>186</v>
+      </c>
+      <c r="G74" s="7"/>
       <c r="J74" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M74" s="18"/>
-      <c r="Q74" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="R74" s="27"/>
-      <c r="S74" s="27"/>
-      <c r="T74" s="87"/>
+        <v>185</v>
+      </c>
+      <c r="M74" s="7"/>
+      <c r="Q74" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="76"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="Y74" t="str">
         <f>Y5</f>
         <v>Atlas V 551</v>
       </c>
-      <c r="Z74" s="18">
-        <f>Sheet6!F7</f>
+      <c r="Z74" s="7">
+        <f>'Launcher Cost DB'!F7</f>
         <v>3876.5864797408531</v>
       </c>
-      <c r="AC74" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD74" s="60"/>
-      <c r="AE74" s="60"/>
-      <c r="AF74" s="91"/>
+      <c r="AC74" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD74" s="49"/>
+      <c r="AE74" s="49"/>
+      <c r="AF74" s="80"/>
     </row>
     <row r="75" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F75" t="str">
         <f>F5</f>
         <v>Falcon Heavy</v>
       </c>
-      <c r="G75" s="18">
-        <f>Sheet6!F6</f>
+      <c r="G75" s="7">
+        <f>'Launcher Cost DB'!F6</f>
         <v>2351.0971786833857</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="M75" s="18"/>
-      <c r="Q75" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="R75" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="S75" s="89"/>
-      <c r="T75" s="90"/>
+        <v>186</v>
+      </c>
+      <c r="M75" s="7"/>
+      <c r="Q75" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="R75" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="S75" s="78"/>
+      <c r="T75" s="79"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z75" s="18">
+        <v>188</v>
+      </c>
+      <c r="Z75" s="7">
         <f>Z74*(Z3)</f>
         <v>47427617.839135252</v>
       </c>
       <c r="AC75" s="1"/>
       <c r="AD75" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF75" s="18">
+        <v>191</v>
+      </c>
+      <c r="AF75" s="7">
         <v>300000</v>
       </c>
     </row>
     <row r="76" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G76" s="18">
+        <v>188</v>
+      </c>
+      <c r="G76" s="7">
         <f>G75*(G3)</f>
         <v>68778944.4724655</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L76" t="str">
         <f>L5</f>
         <v>Falcon Heavy</v>
       </c>
-      <c r="M76" s="18">
-        <f>Sheet6!F6</f>
+      <c r="M76" s="7">
+        <f>'Launcher Cost DB'!F6</f>
         <v>2351.0971786833857</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="T76" s="18"/>
+        <v>185</v>
+      </c>
+      <c r="T76" s="7"/>
       <c r="W76" s="1"/>
       <c r="X76" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z76" s="18">
+        <v>189</v>
+      </c>
+      <c r="Z76" s="7">
         <f>Z72+Z73+Z75</f>
         <v>47427617.839135252</v>
       </c>
       <c r="AC76" s="1"/>
       <c r="AD76" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="AE76" t="str">
         <f>AE5</f>
         <v>Falcon Heavy</v>
       </c>
-      <c r="AF76" s="18">
-        <f>Sheet6!F6</f>
+      <c r="AF76" s="7">
+        <f>'Launcher Cost DB'!F6</f>
         <v>2351.0971786833857</v>
       </c>
     </row>
     <row r="77" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G77" s="18">
+        <v>189</v>
+      </c>
+      <c r="G77" s="7">
         <f>G73+G74+G76</f>
         <v>68778944.4724655</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M77" s="18">
+        <v>188</v>
+      </c>
+      <c r="M77" s="7">
         <f>M76*(M3)</f>
         <v>48564320.347311638</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="T77" s="18"/>
-      <c r="W77" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="X77" s="60"/>
-      <c r="Y77" s="60"/>
-      <c r="Z77" s="91"/>
+        <v>186</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="W77" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="X77" s="49"/>
+      <c r="Y77" s="49"/>
+      <c r="Z77" s="80"/>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF77" s="18">
+        <v>193</v>
+      </c>
+      <c r="AF77" s="7">
         <f>AF76*AF4*3.03809</f>
         <v>149999741.37931034</v>
       </c>
     </row>
     <row r="78" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="D78" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="91"/>
+      <c r="D78" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="80"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="M78" s="18">
+        <v>189</v>
+      </c>
+      <c r="M78" s="7">
         <f>M74+M75+M77</f>
         <v>48564320.347311638</v>
       </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="S78" t="str">
         <f>S5</f>
         <v>Falcon Heavy</v>
       </c>
-      <c r="T78" s="18">
-        <f>Sheet6!F6</f>
+      <c r="T78" s="7">
+        <f>'Launcher Cost DB'!F6</f>
         <v>2351.0971786833857</v>
       </c>
       <c r="W78" s="1"/>
       <c r="X78" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z78" s="18">
+        <v>191</v>
+      </c>
+      <c r="Z78" s="7">
         <v>300000</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF78" s="18">
+        <v>194</v>
+      </c>
+      <c r="AF78" s="7">
         <f>AF74+AF75+AF77</f>
         <v>150299741.37931034</v>
       </c>
@@ -4675,90 +4557,90 @@
     <row r="79" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G79" s="18">
+        <v>191</v>
+      </c>
+      <c r="G79" s="7">
         <v>300000</v>
       </c>
-      <c r="J79" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="91"/>
+      <c r="J79" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="80"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="T79" s="18">
+        <v>188</v>
+      </c>
+      <c r="T79" s="7">
         <f>T78*(T3)</f>
         <v>52981338.207372464</v>
       </c>
       <c r="W79" s="1"/>
       <c r="X79" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="Y79" t="str">
         <f>Y6</f>
         <v>Atlas V 551</v>
       </c>
-      <c r="Z79" s="18">
-        <f>Sheet6!F7</f>
+      <c r="Z79" s="7">
+        <f>'Launcher Cost DB'!F7</f>
         <v>3876.5864797408531</v>
       </c>
-      <c r="AC79" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD79" s="89"/>
-      <c r="AE79" s="89"/>
-      <c r="AF79" s="92"/>
+      <c r="AC79" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD79" s="78"/>
+      <c r="AE79" s="78"/>
+      <c r="AF79" s="81"/>
     </row>
     <row r="80" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F80" t="str">
         <f>F6</f>
         <v>Falcon Heavy</v>
       </c>
-      <c r="G80" s="18">
-        <f>Sheet6!F6</f>
+      <c r="G80" s="7">
+        <f>'Launcher Cost DB'!F6</f>
         <v>2351.0971786833857</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M80" s="18">
+        <v>191</v>
+      </c>
+      <c r="M80" s="7">
         <v>300000</v>
       </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="T80" s="18">
+        <v>189</v>
+      </c>
+      <c r="T80" s="7">
         <f>T76+T77+T79</f>
         <v>52981338.207372464</v>
       </c>
       <c r="W80" s="1"/>
       <c r="X80" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z80" s="18">
+        <v>193</v>
+      </c>
+      <c r="Z80" s="7">
         <f>Z79*Z4</f>
         <v>52745070.635836259</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD80" s="40" t="s">
-        <v>212</v>
+        <v>196</v>
+      </c>
+      <c r="AD80" s="29" t="s">
+        <v>197</v>
       </c>
       <c r="AE80" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF80" s="18">
+        <v>198</v>
+      </c>
+      <c r="AF80" s="7">
         <f>(AF73/180)+AF78+AF68 +(AF79/180)</f>
         <v>150574036.05015674</v>
       </c>
@@ -4766,319 +4648,319 @@
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G81" s="18">
+        <v>193</v>
+      </c>
+      <c r="G81" s="7">
         <f>G80*G4</f>
         <v>1549463772.0830281</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="L81" t="str">
         <f>L6</f>
         <v>Falcon Heavy</v>
       </c>
-      <c r="M81" s="18">
-        <f>Sheet6!F6</f>
+      <c r="M81" s="7">
+        <f>'Launcher Cost DB'!F6</f>
         <v>2351.0971786833857</v>
       </c>
-      <c r="Q81" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="R81" s="60"/>
-      <c r="S81" s="60"/>
-      <c r="T81" s="91"/>
+      <c r="Q81" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="R81" s="49"/>
+      <c r="S81" s="49"/>
+      <c r="T81" s="80"/>
       <c r="X81" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z81" s="18">
+        <v>194</v>
+      </c>
+      <c r="Z81" s="7">
         <f>Z77+Z78+Z80</f>
         <v>53045070.635836259</v>
       </c>
       <c r="AC81" s="1"/>
-      <c r="AD81" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE81" s="47"/>
-      <c r="AF81" s="93">
+      <c r="AD81" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE81" s="36"/>
+      <c r="AF81" s="82">
         <f>AF80/AF17</f>
         <v>16714.758838184509</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E82" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G82" s="18">
+        <v>194</v>
+      </c>
+      <c r="G82" s="7">
         <f>G78+G79+G81</f>
         <v>1549763772.0830281</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="M82" s="18">
+        <v>193</v>
+      </c>
+      <c r="M82" s="7">
         <f>M81*M4</f>
         <v>280252171.69561762</v>
       </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="T82" s="18">
+        <v>191</v>
+      </c>
+      <c r="T82" s="7">
         <v>300000</v>
       </c>
-      <c r="W82" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="X82" s="89"/>
-      <c r="Y82" s="89"/>
-      <c r="Z82" s="92"/>
-      <c r="AD82" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE82" s="47"/>
-      <c r="AF82" s="93">
+      <c r="W82" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="X82" s="78"/>
+      <c r="Y82" s="78"/>
+      <c r="Z82" s="81"/>
+      <c r="AD82" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE82" s="36"/>
+      <c r="AF82" s="82">
         <f>AF80/AF17</f>
         <v>16714.758838184509</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D83" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="E83" s="89"/>
-      <c r="F83" s="89"/>
-      <c r="G83" s="92"/>
+      <c r="D83" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="81"/>
       <c r="K83" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M83" s="18">
+        <v>194</v>
+      </c>
+      <c r="M83" s="7">
         <f>M79+M80+M82</f>
         <v>280552171.69561762</v>
       </c>
       <c r="Q83" s="1"/>
       <c r="R83" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="S83" t="str">
         <f>S6</f>
         <v>Falcon Heavy</v>
       </c>
-      <c r="T83" s="18">
-        <f>Sheet6!F6</f>
+      <c r="T83" s="7">
+        <f>'Launcher Cost DB'!F6</f>
         <v>2351.0971786833857</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X83" s="40" t="s">
-        <v>212</v>
+        <v>196</v>
+      </c>
+      <c r="X83" s="29" t="s">
+        <v>197</v>
       </c>
       <c r="Y83" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z83" s="18">
+        <v>198</v>
+      </c>
+      <c r="Z83" s="7">
         <f>(Z76/180)+Z81+Z71 +(Z82/180)</f>
         <v>53308557.401609235</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A84" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="B84" s="60"/>
+      <c r="A84" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" s="49"/>
       <c r="D84" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E84" s="40" t="s">
-        <v>212</v>
+        <v>196</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>197</v>
       </c>
       <c r="F84" t="s">
-        <v>213</v>
-      </c>
-      <c r="G84" s="18">
+        <v>198</v>
+      </c>
+      <c r="G84" s="7">
         <f>(G77/180)+G82+G72 +(G83/180)</f>
         <v>1550145877.3300974</v>
       </c>
-      <c r="J84" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="K84" s="89"/>
-      <c r="L84" s="89"/>
-      <c r="M84" s="92"/>
+      <c r="J84" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="K84" s="78"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="81"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="T84" s="18">
+        <v>193</v>
+      </c>
+      <c r="T84" s="7">
         <f>T83*T4</f>
         <v>280252171.69561762</v>
       </c>
       <c r="W84" s="1"/>
-      <c r="X84" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y84" s="47"/>
-      <c r="Z84" s="93">
+      <c r="X84" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y84" s="36"/>
+      <c r="Z84" s="82">
         <f>Z83/Z16</f>
         <v>4884.3999375581379</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
-      <c r="E85" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="F85" s="47"/>
-      <c r="G85" s="93">
+      <c r="E85" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" s="36"/>
+      <c r="G85" s="82">
         <f>G84/G8</f>
         <v>24296.957324923158</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K85" s="40" t="s">
-        <v>212</v>
+        <v>196</v>
+      </c>
+      <c r="K85" s="29" t="s">
+        <v>197</v>
       </c>
       <c r="L85" t="s">
-        <v>213</v>
-      </c>
-      <c r="M85" s="18">
+        <v>198</v>
+      </c>
+      <c r="M85" s="7">
         <f>(M78/180)+M83+M73 +(M84/180)</f>
         <v>280821973.47532493</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="T85" s="18">
+        <v>194</v>
+      </c>
+      <c r="T85" s="7">
         <f>T81+T82+T84</f>
         <v>280552171.69561762</v>
       </c>
-      <c r="X85" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y85" s="47"/>
-      <c r="Z85" s="93">
+      <c r="X85" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y85" s="36"/>
+      <c r="Z85" s="82">
         <f>Z83/Z16</f>
         <v>4884.3999375581379</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="E86" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="F86" s="47"/>
-      <c r="G86" s="93">
+      <c r="E86" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F86" s="36"/>
+      <c r="G86" s="82">
         <f>G84/G8</f>
         <v>24296.957324923158</v>
       </c>
       <c r="J86" s="1"/>
-      <c r="K86" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="L86" s="47"/>
-      <c r="M86" s="93">
+      <c r="K86" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="L86" s="36"/>
+      <c r="M86" s="82">
         <f>M85/M16</f>
         <v>7684.654636077069</v>
       </c>
-      <c r="Q86" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="R86" s="89"/>
-      <c r="S86" s="89"/>
-      <c r="T86" s="92"/>
+      <c r="Q86" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="R86" s="78"/>
+      <c r="S86" s="78"/>
+      <c r="T86" s="81"/>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="K87" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="L87" s="47"/>
-      <c r="M87" s="93">
+      <c r="K87" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="L87" s="36"/>
+      <c r="M87" s="82">
         <f>M85/M12</f>
         <v>7684.654636077069</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R87" s="40" t="s">
-        <v>212</v>
+        <v>196</v>
+      </c>
+      <c r="R87" s="29" t="s">
+        <v>197</v>
       </c>
       <c r="S87" t="s">
-        <v>213</v>
-      </c>
-      <c r="T87" s="18">
+        <v>198</v>
+      </c>
+      <c r="T87" s="7">
         <f>(T80/180)+T85+T75 +(T86/180)</f>
         <v>280846512.46343637</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Q88" s="1"/>
-      <c r="R88" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="S88" s="47"/>
-      <c r="T88" s="93">
+      <c r="R88" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="S88" s="36"/>
+      <c r="T88" s="82">
         <f>T87/T27</f>
         <v>7685.3261421078168</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="R89" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="S89" s="47"/>
-      <c r="T89" s="93">
+      <c r="R89" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="S89" s="36"/>
+      <c r="T89" s="82">
         <f>T87/T27</f>
         <v>7685.3261421078168</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="60"/>
-      <c r="J94" s="60"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="60"/>
-      <c r="N94" s="60"/>
-      <c r="O94" s="60"/>
-      <c r="P94" s="60"/>
-      <c r="Q94" s="60"/>
-      <c r="R94" s="60"/>
-      <c r="S94" s="60"/>
-      <c r="T94" s="60"/>
-      <c r="U94" s="60"/>
-      <c r="V94" s="60"/>
-      <c r="W94" s="60"/>
-      <c r="X94" s="60"/>
-      <c r="Y94" s="60"/>
-      <c r="Z94" s="60"/>
-      <c r="AA94" s="60"/>
-      <c r="AB94" s="60"/>
-      <c r="AC94" s="60"/>
-      <c r="AD94" s="60"/>
-      <c r="AE94" s="60"/>
-      <c r="AF94" s="60"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="49"/>
+      <c r="R94" s="49"/>
+      <c r="S94" s="49"/>
+      <c r="T94" s="49"/>
+      <c r="U94" s="49"/>
+      <c r="V94" s="49"/>
+      <c r="W94" s="49"/>
+      <c r="X94" s="49"/>
+      <c r="Y94" s="49"/>
+      <c r="Z94" s="49"/>
+      <c r="AA94" s="49"/>
+      <c r="AB94" s="49"/>
+      <c r="AC94" s="49"/>
+      <c r="AD94" s="49"/>
+      <c r="AE94" s="49"/>
+      <c r="AF94" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="J46:M46"/>
     <mergeCell ref="W44:Z44"/>
     <mergeCell ref="AC44:AF44"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="J46:M46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5087,185 +4969,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E23A57-50A6-4EC7-8215-D5086793F090}">
-  <dimension ref="C2:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-    </row>
-    <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3490</v>
-      </c>
-      <c r="E5" s="8">
-        <v>27200</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="6">
-        <v>22977</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1910</v>
-      </c>
-      <c r="I5" s="10">
-        <f>0.5*G5*(H5^2)</f>
-        <v>41911196850</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2462</v>
-      </c>
-      <c r="E6" s="12">
-        <v>20830</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="12">
-        <v>18850</v>
-      </c>
-      <c r="H6" s="13">
-        <v>3076</v>
-      </c>
-      <c r="I6" s="14">
-        <f>0.5*G6*(H6^2)</f>
-        <v>89177238800</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="12">
-        <v>3900</v>
-      </c>
-      <c r="E7" s="12">
-        <v>92670</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="12">
-        <v>15600</v>
-      </c>
-      <c r="H7" s="13">
-        <v>5361</v>
-      </c>
-      <c r="I7" s="14">
-        <f>0.5*G7*(H7^2)</f>
-        <v>224174503800</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="12">
-        <v>4540</v>
-      </c>
-      <c r="E8" s="12">
-        <v>14700</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="12">
-        <v>10865</v>
-      </c>
-      <c r="H8" s="12">
-        <v>2350</v>
-      </c>
-      <c r="I8" s="14">
-        <f>0.5*G8*(H8^2)</f>
-        <v>30000981250</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:J3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAA59C2-44B5-40C0-B117-24B7299CEE07}">
   <dimension ref="B7:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -5281,11 +4988,11 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="104" t="s">
-        <v>42</v>
+      <c r="B7" s="93" t="s">
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -5300,57 +5007,57 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="104"/>
+      <c r="B8" s="93"/>
       <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
+        <v>33</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="104"/>
+      <c r="B9" s="93"/>
       <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="17">
-        <f>Sheet1!G16</f>
+        <v>28</v>
+      </c>
+      <c r="D9" s="6">
+        <f>'Sizing Calcs'!G16</f>
         <v>688292.56877493649</v>
       </c>
-      <c r="E9" s="17">
-        <f>Sheet1!G7</f>
+      <c r="E9" s="6">
+        <f>'Sizing Calcs'!G7</f>
         <v>29253.977715621993</v>
       </c>
-      <c r="F9" s="17">
-        <f>Sheet1!G8</f>
+      <c r="F9" s="6">
+        <f>'Sizing Calcs'!G8</f>
         <v>63800</v>
       </c>
-      <c r="G9" s="17">
-        <f>Sheet1!G11</f>
+      <c r="G9" s="6">
+        <f>'Sizing Calcs'!G11</f>
         <v>595238.59105931455</v>
       </c>
       <c r="H9" s="4">
-        <f>Sheet1!G9^2*(Sheet1!G7+Sheet1!G8)</f>
+        <f>'Sizing Calcs'!G9^2*('Sizing Calcs'!G7+'Sizing Calcs'!G8)</f>
         <v>7638205485218.0293</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2">
         <v>450</v>
@@ -5363,11 +5070,11 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="104" t="s">
-        <v>50</v>
+      <c r="B12" s="93" t="s">
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -5382,19 +5089,19 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="104"/>
+      <c r="B13" s="93"/>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>63800</v>
@@ -5402,68 +5109,68 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="104"/>
+      <c r="B14" s="93"/>
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="17">
-        <f>Sheet1!M15</f>
+      <c r="D14" s="6">
+        <f>'Sizing Calcs'!M15</f>
         <v>123100.59036120269</v>
       </c>
-      <c r="E14" s="17">
-        <f>Sheet1!M11</f>
+      <c r="E14" s="6">
+        <f>'Sizing Calcs'!M11</f>
         <v>3900</v>
       </c>
-      <c r="F14" s="17">
-        <f>Sheet1!M12</f>
+      <c r="F14" s="6">
+        <f>'Sizing Calcs'!M12</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="G14" s="17">
-        <f>Sheet1!M14</f>
+      <c r="G14" s="6">
+        <f>'Sizing Calcs'!M14</f>
         <v>82657.37706480379</v>
       </c>
       <c r="H14" s="4">
-        <f>Sheet1!M8</f>
+        <f>'Sizing Calcs'!M8</f>
         <v>292000000000</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="17">
-        <f>Sheet1!M13</f>
+        <v>37</v>
+      </c>
+      <c r="J14" s="6">
+        <f>'Sizing Calcs'!M13</f>
         <v>348</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="104"/>
+      <c r="B15" s="93"/>
       <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="17">
-        <f>Sheet1!M22</f>
+      <c r="D15" s="6">
+        <f>'Sizing Calcs'!M22</f>
         <v>157159.28322292544</v>
       </c>
-      <c r="E15" s="17">
-        <f>Sheet1!M16</f>
+      <c r="E15" s="6">
+        <f>'Sizing Calcs'!M16</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="F15" s="17">
-        <f>Sheet1!M17</f>
+      <c r="F15" s="6">
+        <f>'Sizing Calcs'!M17</f>
         <v>16756.024254389882</v>
       </c>
-      <c r="G15" s="17">
-        <f>Sheet1!M20</f>
+      <c r="G15" s="6">
+        <f>'Sizing Calcs'!M20</f>
         <v>103860.04567213666</v>
       </c>
       <c r="H15" s="4">
-        <f>Sheet1!M21</f>
+        <f>'Sizing Calcs'!M21</f>
         <v>666240469384.85974</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="17">
-        <f>Sheet1!M18</f>
+        <v>18</v>
+      </c>
+      <c r="J15" s="6">
+        <f>'Sizing Calcs'!M18</f>
         <v>450</v>
       </c>
     </row>
@@ -5471,11 +5178,11 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="104" t="s">
-        <v>67</v>
+      <c r="B17" s="93" t="s">
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -5490,127 +5197,127 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="104"/>
+      <c r="B18" s="93"/>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="104"/>
+      <c r="B19" s="93"/>
       <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="17">
-        <f>Sheet1!T16</f>
+        <v>57</v>
+      </c>
+      <c r="D19" s="6">
+        <f>'Sizing Calcs'!T16</f>
         <v>123100.59036120269</v>
       </c>
-      <c r="E19" s="17">
-        <f>Sheet1!T11</f>
+      <c r="E19" s="6">
+        <f>'Sizing Calcs'!T11</f>
         <v>3900</v>
       </c>
-      <c r="F19" s="17">
-        <f>Sheet1!T13</f>
+      <c r="F19" s="6">
+        <f>'Sizing Calcs'!T13</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="G19" s="17">
-        <f>Sheet1!T15</f>
+      <c r="G19" s="6">
+        <f>'Sizing Calcs'!T15</f>
         <v>82657.37706480379</v>
       </c>
       <c r="H19" s="4">
-        <f>Sheet1!T8</f>
+        <f>'Sizing Calcs'!T8</f>
         <v>292000000000</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="17">
-        <f>Sheet1!T14</f>
+        <v>37</v>
+      </c>
+      <c r="J19" s="6">
+        <f>'Sizing Calcs'!T14</f>
         <v>348</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="104"/>
+      <c r="B20" s="93"/>
       <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="17">
-        <f>Sheet1!T26</f>
+        <v>39</v>
+      </c>
+      <c r="D20" s="6">
+        <f>'Sizing Calcs'!T26</f>
         <v>55857.71045513446</v>
       </c>
-      <c r="E20" s="17">
-        <f>Sheet1!T24</f>
+      <c r="E20" s="6">
+        <f>'Sizing Calcs'!T24</f>
         <v>1849.3682098278878</v>
       </c>
-      <c r="F20" s="17">
-        <f>Sheet1!T19</f>
+      <c r="F20" s="6">
+        <f>'Sizing Calcs'!T19</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="G20" s="17">
-        <f>Sheet1!T25</f>
+      <c r="G20" s="6">
+        <f>'Sizing Calcs'!T25</f>
         <v>17465.128948907681</v>
       </c>
       <c r="H20" s="4">
-        <f>Sheet1!T18</f>
+        <f>'Sizing Calcs'!T18</f>
         <v>31451202769.900978</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J20" s="2">
-        <f>Sheet1!T21</f>
+        <f>'Sizing Calcs'!T21</f>
         <v>348</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="104"/>
+      <c r="B21" s="93"/>
       <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="17">
-        <f>Sheet1!T33</f>
+      <c r="D21" s="6">
+        <f>'Sizing Calcs'!T33</f>
         <v>119752.65046634462</v>
       </c>
-      <c r="E21" s="17">
-        <f>Sheet1!T28</f>
+      <c r="E21" s="6">
+        <f>'Sizing Calcs'!T28</f>
         <v>16756.024254389882</v>
       </c>
-      <c r="F21" s="17">
-        <f>Sheet1!T27</f>
+      <c r="F21" s="6">
+        <f>'Sizing Calcs'!T27</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="G21" s="17">
-        <f>Sheet1!T31</f>
+      <c r="G21" s="6">
+        <f>'Sizing Calcs'!T31</f>
         <v>66453.412915555862</v>
       </c>
       <c r="H21" s="4">
-        <f>Sheet1!T32</f>
+        <f>'Sizing Calcs'!T32</f>
         <v>384820495116.69495</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="17">
-        <f>Sheet1!T29</f>
+        <v>18</v>
+      </c>
+      <c r="J21" s="6">
+        <f>'Sizing Calcs'!T29</f>
         <v>450</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="104" t="s">
-        <v>69</v>
+      <c r="B23" s="93" t="s">
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -5625,97 +5332,97 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="104"/>
+      <c r="B24" s="93"/>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="104"/>
+      <c r="B25" s="93"/>
       <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="17">
-        <f>Sheet1!Z15</f>
+        <v>68</v>
+      </c>
+      <c r="D25" s="6">
+        <f>'Sizing Calcs'!Z15</f>
         <v>20836.060618403186</v>
       </c>
-      <c r="E25" s="17">
-        <f>Sheet1!Z11</f>
+      <c r="E25" s="6">
+        <f>'Sizing Calcs'!Z11</f>
         <v>7230</v>
       </c>
-      <c r="F25" s="17">
-        <f>Sheet1!Z12</f>
+      <c r="F25" s="6">
+        <f>'Sizing Calcs'!Z12</f>
         <v>10914.044321329638</v>
       </c>
-      <c r="G25" s="17">
-        <f>Sheet1!Z14</f>
+      <c r="G25" s="6">
+        <f>'Sizing Calcs'!Z14</f>
         <v>2692.0162970735473</v>
       </c>
       <c r="H25" s="4">
-        <f>Sheet1!Z8</f>
+        <f>'Sizing Calcs'!Z8</f>
         <v>131000000000</v>
       </c>
-      <c r="I25" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="17">
-        <f>Sheet1!Z13</f>
+      <c r="I25" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="6">
+        <f>'Sizing Calcs'!Z13</f>
         <v>2800</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="104"/>
+      <c r="B26" s="93"/>
       <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="17">
-        <f>Sheet1!Z21</f>
+      <c r="D26" s="6">
+        <f>'Sizing Calcs'!Z21</f>
         <v>46937.398982711573</v>
       </c>
-      <c r="E26" s="17">
-        <f>Sheet1!Z17</f>
+      <c r="E26" s="6">
+        <f>'Sizing Calcs'!Z17</f>
         <v>5004.3763223117239</v>
       </c>
-      <c r="F26" s="17">
-        <f>Sheet1!Z16</f>
+      <c r="F26" s="6">
+        <f>'Sizing Calcs'!Z16</f>
         <v>10914.044321329638</v>
       </c>
-      <c r="G26" s="17">
-        <f>Sheet1!Z20</f>
+      <c r="G26" s="6">
+        <f>'Sizing Calcs'!Z20</f>
         <v>31018.97833907021</v>
       </c>
       <c r="H26" s="4">
-        <f>Sheet1!Z22</f>
+        <f>'Sizing Calcs'!Z22</f>
         <v>198980258045.51703</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="17">
-        <f>Sheet1!Z18</f>
+        <v>18</v>
+      </c>
+      <c r="J26" s="6">
+        <f>'Sizing Calcs'!Z18</f>
         <v>450</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -5730,10 +5437,10 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>1</v>
@@ -5741,38 +5448,38 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="33">
-        <f>Sheet1!AF8</f>
+      <c r="D30" s="22">
+        <f>'Sizing Calcs'!AF8</f>
         <v>117570</v>
       </c>
-      <c r="E30" s="33">
-        <f>Sheet1!AF6</f>
+      <c r="E30" s="22">
+        <f>'Sizing Calcs'!AF6</f>
         <v>3900</v>
       </c>
-      <c r="F30" s="33">
-        <f>Sheet1!AF4</f>
+      <c r="F30" s="22">
+        <f>'Sizing Calcs'!AF4</f>
         <v>21000</v>
       </c>
-      <c r="G30" s="33">
-        <f>Sheet1!AF7</f>
+      <c r="G30" s="22">
+        <f>'Sizing Calcs'!AF7</f>
         <v>92670</v>
       </c>
       <c r="H30" s="4">
-        <f>Sheet1!AF11</f>
+        <f>'Sizing Calcs'!AF11</f>
         <v>179778000000</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="33">
-        <f>Sheet1!AF10</f>
+        <v>37</v>
+      </c>
+      <c r="J30" s="22">
+        <f>'Sizing Calcs'!AF10</f>
         <v>348</v>
       </c>
     </row>
@@ -5780,31 +5487,31 @@
       <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="33">
-        <f>Sheet1!AF12</f>
+      <c r="D31" s="22">
+        <f>'Sizing Calcs'!AF12</f>
         <v>21000</v>
       </c>
-      <c r="E31" s="33">
-        <f>Sheet1!AF13</f>
+      <c r="E31" s="22">
+        <f>'Sizing Calcs'!AF13</f>
         <v>3116.4</v>
       </c>
-      <c r="F31" s="33">
-        <f>Sheet1!AF14</f>
+      <c r="F31" s="22">
+        <f>'Sizing Calcs'!AF14</f>
         <v>6311.0216400000008</v>
       </c>
-      <c r="G31" s="33">
-        <f>Sheet1!AF17</f>
+      <c r="G31" s="22">
+        <f>'Sizing Calcs'!AF17</f>
         <v>9008.4480133912293</v>
       </c>
       <c r="H31" s="4">
-        <f>Sheet1!AF18</f>
+        <f>'Sizing Calcs'!AF18</f>
         <v>29460692625</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="33">
-        <f>Sheet1!AF16</f>
+        <v>18</v>
+      </c>
+      <c r="J31" s="22">
+        <f>'Sizing Calcs'!AF16</f>
         <v>450</v>
       </c>
     </row>
@@ -5820,7 +5527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D685C4A-6611-45E2-BB7C-3CFB0014F712}">
   <dimension ref="C2:L13"/>
   <sheetViews>
@@ -5841,263 +5548,263 @@
   <sheetData>
     <row r="2" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="L3" s="66" t="s">
-        <v>185</v>
+      <c r="C3" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="82" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="75">
+      <c r="C4" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="64">
         <v>1</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="59">
         <v>1</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="59">
         <v>1</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="59">
         <v>1</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="59">
         <v>1</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="59">
         <v>1</v>
       </c>
-      <c r="K4" s="71">
+      <c r="K4" s="60">
         <f t="shared" ref="K4:K10" si="0">SUM(D4:J4)+1</f>
         <v>7</v>
       </c>
-      <c r="L4" s="72">
+      <c r="L4" s="61">
         <f>K4/SUM(K4:K10)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="75">
+      <c r="C5" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="64">
         <v>0</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75">
+      <c r="E5" s="63"/>
+      <c r="F5" s="64">
         <v>0</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="64">
         <v>0</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="64">
         <v>1</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="64">
         <v>1</v>
       </c>
-      <c r="J5" s="75">
+      <c r="J5" s="64">
         <v>1</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="61">
         <f>K5/SUM(K4:K10)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="82" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="73">
+      <c r="C6" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="62">
         <v>0</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="64">
         <v>1</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75">
+      <c r="F6" s="63"/>
+      <c r="G6" s="64">
         <v>1</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="64">
         <v>0</v>
       </c>
-      <c r="I6" s="75">
+      <c r="I6" s="64">
         <v>1</v>
       </c>
-      <c r="J6" s="75">
+      <c r="J6" s="64">
         <v>1</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L6" s="76">
+      <c r="L6" s="65">
         <f>K6/SUM($K$4:$K$10)</f>
         <v>0.17857142857142858</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="73">
+      <c r="C7" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="62">
         <v>0</v>
       </c>
-      <c r="E7" s="75">
+      <c r="E7" s="64">
         <v>1</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="64">
         <v>0</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75">
+      <c r="G7" s="63"/>
+      <c r="H7" s="64">
         <v>0</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="64">
         <v>1</v>
       </c>
-      <c r="J7" s="75">
+      <c r="J7" s="64">
         <v>1</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L7" s="76">
+      <c r="L7" s="65">
         <f>K7/SUM($K$4:$K$10)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="73">
+      <c r="C8" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="62">
         <v>0</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="64">
         <v>0</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="64">
         <v>1</v>
       </c>
-      <c r="G8" s="75">
+      <c r="G8" s="64">
         <v>1</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75">
+      <c r="H8" s="63"/>
+      <c r="I8" s="64">
         <v>0</v>
       </c>
-      <c r="J8" s="75">
+      <c r="J8" s="64">
         <v>0</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L8" s="76">
+      <c r="L8" s="65">
         <f>K8/SUM($K$4:$K$10)</f>
         <v>0.10714285714285714</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="73">
+      <c r="C9" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="62">
         <v>0</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="64">
         <v>0</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="64">
         <v>0</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="64">
         <v>0</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="64">
         <v>1</v>
       </c>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75">
+      <c r="I9" s="63"/>
+      <c r="J9" s="64">
         <v>1</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L9" s="76">
+      <c r="L9" s="65">
         <f>K9/SUM($K$4:$K$10)</f>
         <v>0.10714285714285714</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="77">
+      <c r="C10" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="66">
         <v>0</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="67">
         <v>0</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="67">
         <v>0</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="67">
         <v>0</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="67">
         <v>1</v>
       </c>
-      <c r="I10" s="78">
+      <c r="I10" s="67">
         <v>0</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="80">
+      <c r="J10" s="68"/>
+      <c r="K10" s="69">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L10" s="81">
+      <c r="L10" s="70">
         <f>K10/SUM($K$4:$K$10)</f>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L13" s="63">
+      <c r="L13" s="52">
         <f>SUM(L4:L10)</f>
         <v>0.99999999999999978</v>
       </c>
@@ -6108,11 +5815,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1ABFC45-A3E7-4C9B-8682-7F494A0D9F79}">
   <dimension ref="C3:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -6127,354 +5834,354 @@
   <sheetData>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="85">
-        <f>Sheet1!G85</f>
+      <c r="C4" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="74">
+        <f>'Sizing Calcs'!G85</f>
         <v>24296.957324923158</v>
       </c>
-      <c r="E4" s="85">
-        <f>Sheet1!M86</f>
+      <c r="E4" s="74">
+        <f>'Sizing Calcs'!M86</f>
         <v>7684.654636077069</v>
       </c>
-      <c r="F4" s="85">
-        <f>Sheet1!T88</f>
+      <c r="F4" s="74">
+        <f>'Sizing Calcs'!T88</f>
         <v>7685.3261421078168</v>
       </c>
-      <c r="G4" s="85">
-        <f>Sheet1!Z84</f>
+      <c r="G4" s="74">
+        <f>'Sizing Calcs'!Z84</f>
         <v>4884.3999375581379</v>
       </c>
-      <c r="H4" s="85">
-        <f>Sheet1!AF81</f>
+      <c r="H4" s="74">
+        <f>'Sizing Calcs'!AF81</f>
         <v>16714.758838184509</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="29">
-        <f>Sheet4!L4</f>
+        <v>172</v>
+      </c>
+      <c r="L4" s="18">
+        <f>'Pairwise comparison'!L4</f>
         <v>0.25</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="18">
         <f ca="1">(100-D4/MAX($D4:$H4)*100)*$M4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="18">
         <f t="shared" ref="N4:Q5" si="0">(100-E4/MAX($D4:$H4)*100)*$L4</f>
         <v>17.092986651260283</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="18">
         <f t="shared" si="0"/>
         <v>17.092295714920219</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="18">
         <f t="shared" si="0"/>
         <v>19.974267896758565</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="18">
         <f t="shared" si="0"/>
         <v>7.801592587645775</v>
       </c>
     </row>
     <row r="5" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="85">
-        <f>Sheet1!G86</f>
+        <v>177</v>
+      </c>
+      <c r="D5" s="74">
+        <f>'Sizing Calcs'!G86</f>
         <v>24296.957324923158</v>
       </c>
-      <c r="E5" s="85">
-        <f>Sheet1!M87</f>
+      <c r="E5" s="74">
+        <f>'Sizing Calcs'!M87</f>
         <v>7684.654636077069</v>
       </c>
-      <c r="F5" s="85">
-        <f>Sheet1!T89</f>
+      <c r="F5" s="74">
+        <f>'Sizing Calcs'!T89</f>
         <v>7685.3261421078168</v>
       </c>
-      <c r="G5" s="85">
-        <f>Sheet1!Z85</f>
+      <c r="G5" s="74">
+        <f>'Sizing Calcs'!Z85</f>
         <v>4884.3999375581379</v>
       </c>
-      <c r="H5" s="85">
-        <f>Sheet1!AF82</f>
+      <c r="H5" s="74">
+        <f>'Sizing Calcs'!AF82</f>
         <v>16714.758838184509</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L5" s="29">
-        <f>Sheet4!L5</f>
+        <v>177</v>
+      </c>
+      <c r="L5" s="18">
+        <f>'Pairwise comparison'!L5</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="18">
         <f ca="1">(100-D5/MAX($D5:$H5)*100)*$M5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="18">
         <f t="shared" si="0"/>
         <v>9.7674209435773047</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="18">
         <f t="shared" si="0"/>
         <v>9.7670261228115525</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="18">
         <f t="shared" si="0"/>
         <v>11.413867369576323</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="18">
         <f t="shared" si="0"/>
         <v>4.4580529072261568</v>
       </c>
     </row>
     <row r="6" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="86">
-        <f>Sheet1!G53</f>
+      <c r="C6" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="75">
+        <f>'Sizing Calcs'!G53</f>
         <v>5800</v>
       </c>
-      <c r="E6" s="86">
-        <f>Sheet1!M53</f>
+      <c r="E6" s="75">
+        <f>'Sizing Calcs'!M53</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="F6" s="86">
-        <f>Sheet1!T53</f>
+      <c r="F6" s="75">
+        <f>'Sizing Calcs'!T53</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="G6" s="86">
-        <f>Sheet1!Z51</f>
+      <c r="G6" s="75">
+        <f>'Sizing Calcs'!Z51</f>
         <v>10914.044321329638</v>
       </c>
-      <c r="H6" s="86">
-        <f>Sheet1!AF51</f>
+      <c r="H6" s="75">
+        <f>'Sizing Calcs'!AF51</f>
         <v>6311.0216400000008</v>
       </c>
       <c r="K6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L6" s="29">
-        <f>Sheet4!L6</f>
+        <v>173</v>
+      </c>
+      <c r="L6" s="18">
+        <f>'Pairwise comparison'!L6</f>
         <v>0.17857142857142858</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="18">
         <f>(D6/MAX($D6:$H6)*100)*$L6</f>
         <v>2.8342178814810164</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="18">
         <f>(E6/MAX($D6:$H6)*100)*$L6</f>
         <v>17.857142857142858</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="18">
         <f>(F6/MAX($D6:$H6)*100)*$L6</f>
         <v>17.857142857142858</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="18">
         <f>(G6/MAX($D6:$H6)*100)*$L6</f>
         <v>5.3332378577222075</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="18">
         <f>(H6/MAX($D6:$H6)*100)*$L6</f>
         <v>3.0839328245692506</v>
       </c>
     </row>
     <row r="7" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="86">
-        <f>Sheet1!G53</f>
+      <c r="C7" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="75">
+        <f>'Sizing Calcs'!G53</f>
         <v>5800</v>
       </c>
-      <c r="E7" s="86">
-        <f>Sheet1!M53</f>
+      <c r="E7" s="75">
+        <f>'Sizing Calcs'!M53</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="F7" s="86">
-        <f>Sheet1!T53</f>
+      <c r="F7" s="75">
+        <f>'Sizing Calcs'!T53</f>
         <v>36543.213296398892</v>
       </c>
-      <c r="G7" s="86">
-        <f>Sheet1!Z51</f>
+      <c r="G7" s="75">
+        <f>'Sizing Calcs'!Z51</f>
         <v>10914.044321329638</v>
       </c>
-      <c r="H7" s="86">
-        <f>Sheet1!AF51</f>
+      <c r="H7" s="75">
+        <f>'Sizing Calcs'!AF51</f>
         <v>6311.0216400000008</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="29">
-        <f>Sheet4!L7</f>
+        <v>174</v>
+      </c>
+      <c r="L7" s="18">
+        <f>'Pairwise comparison'!L7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="18">
         <f t="shared" ref="M7:M8" si="1">(D7/MAX($D7:$H7)*100)*$L7</f>
         <v>2.2673743051848128</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="18">
         <f t="shared" ref="N7:N8" si="2">(E7/MAX($D7:$H7)*100)*$L7</f>
         <v>14.285714285714285</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="18">
         <f t="shared" ref="O7:O8" si="3">(F7/MAX($D7:$H7)*100)*$L7</f>
         <v>14.285714285714285</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="18">
         <f t="shared" ref="P7:P8" si="4">(G7/MAX($D7:$H7)*100)*$L7</f>
         <v>4.2665902861777658</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="18">
         <f t="shared" ref="Q7:Q8" si="5">(H7/MAX($D7:$H7)*100)*$L7</f>
         <v>2.4671462596554004</v>
       </c>
     </row>
     <row r="8" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="84">
-        <f>Sheet1!G67</f>
+      <c r="C8" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="73">
+        <f>'Sizing Calcs'!G67</f>
         <v>6.444589247925939</v>
       </c>
-      <c r="E8" s="84">
-        <f>Sheet1!M67</f>
+      <c r="E8" s="73">
+        <f>'Sizing Calcs'!M67</f>
         <v>5.9096634606557235</v>
       </c>
-      <c r="F8" s="84">
-        <f>Sheet1!T68</f>
+      <c r="F8" s="73">
+        <f>'Sizing Calcs'!T68</f>
         <v>6.2090991184694575</v>
       </c>
-      <c r="G8" s="84">
-        <f>Sheet1!Z65</f>
+      <c r="G8" s="73">
+        <f>'Sizing Calcs'!Z65</f>
         <v>270.67500000000001</v>
       </c>
-      <c r="H8" s="84">
-        <f>Sheet1!AF65</f>
+      <c r="H8" s="73">
+        <f>'Sizing Calcs'!AF65</f>
         <v>3.3066</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="52"/>
       <c r="K8" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" s="29">
-        <f>Sheet4!L8</f>
+        <v>175</v>
+      </c>
+      <c r="L8" s="18">
+        <f>'Pairwise comparison'!L8</f>
         <v>0.10714285714285714</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="18">
         <f t="shared" si="1"/>
         <v>0.25509991877156069</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="18">
         <f t="shared" si="2"/>
         <v>0.23392564068620997</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="18">
         <f t="shared" si="3"/>
         <v>0.24577837622093404</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="18">
         <f t="shared" si="4"/>
         <v>10.714285714285714</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="18">
         <f t="shared" si="5"/>
         <v>0.13088706804417524</v>
       </c>
     </row>
     <row r="9" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="83" t="s">
-        <v>191</v>
+      <c r="C9" s="72" t="s">
+        <v>176</v>
       </c>
       <c r="D9" s="3">
-        <f>Sheet1!G61</f>
+        <f>'Sizing Calcs'!G61</f>
         <v>22</v>
       </c>
       <c r="E9" s="3">
-        <f>Sheet1!M61</f>
+        <f>'Sizing Calcs'!M61</f>
         <v>8</v>
       </c>
       <c r="F9" s="3">
-        <f>Sheet1!T61</f>
+        <f>'Sizing Calcs'!T61</f>
         <v>11</v>
       </c>
       <c r="G9" s="3">
-        <f>Sheet1!Z59</f>
+        <f>'Sizing Calcs'!Z59</f>
         <v>8</v>
       </c>
       <c r="H9" s="3">
-        <f>Sheet1!AF59</f>
+        <f>'Sizing Calcs'!AF59</f>
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="29">
-        <f>Sheet4!L9</f>
+        <v>176</v>
+      </c>
+      <c r="L9" s="18">
+        <f>'Pairwise comparison'!L9</f>
         <v>0.10714285714285714</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="18">
         <f>(100-D9/MAX($D9:$H9)*100)*$L9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="18">
         <f>(100-E9/MAX($D9:$H9)*100)*$L9</f>
         <v>6.8181818181818175</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="18">
         <f>(100-F9/MAX($D9:$H9)*100)*$L9</f>
         <v>5.3571428571428568</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="18">
         <f>(100-G9/MAX($D9:$H9)*100)*$L9</f>
         <v>6.8181818181818175</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="18">
         <f>(100-H9/MAX($D9:$H9)*100)*$L9</f>
         <v>10.227272727272727</v>
       </c>
@@ -6489,29 +6196,29 @@
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>231</v>
-      </c>
-      <c r="L11" s="29">
+        <v>216</v>
+      </c>
+      <c r="L11" s="18">
         <f>SUM(L4:L9)</f>
         <v>0.92857142857142838</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="18">
         <f t="shared" ref="M11:Q11" ca="1" si="6">SUM(M4:M9)</f>
         <v>50.446192401617083</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="18">
         <f t="shared" si="6"/>
         <v>66.055372196562757</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="18">
         <f t="shared" si="6"/>
         <v>64.60510021395271</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="18">
         <f t="shared" si="6"/>
         <v>58.520430942702397</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="18">
         <f t="shared" si="6"/>
         <v>28.168884374413484</v>
       </c>
@@ -6521,12 +6228,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DAC1BD-3FD9-4B6D-B720-F7C8472D6D8A}">
   <dimension ref="C4:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6539,149 +6246,149 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="C4" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="17">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6">
         <v>150000000</v>
       </c>
       <c r="E6" s="2">
         <v>63800</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="6">
         <f>D6/E6</f>
         <v>2351.0971786833857</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="17">
+        <v>181</v>
+      </c>
+      <c r="D7" s="6">
         <v>73000000</v>
       </c>
       <c r="E7" s="2">
         <v>18831</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="6">
         <f t="shared" ref="F7:F12" si="0">D7/E7</f>
         <v>3876.5864797408531</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="17">
+        <v>205</v>
+      </c>
+      <c r="D8" s="6">
         <v>115000000</v>
       </c>
       <c r="E8" s="2">
         <v>21650</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>5311.778290993072</v>
       </c>
       <c r="G8" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="17">
+        <v>207</v>
+      </c>
+      <c r="D9" s="6">
         <v>67000000</v>
       </c>
       <c r="E9" s="2">
         <v>22800</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>2938.5964912280701</v>
       </c>
       <c r="G9" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="17">
+        <v>208</v>
+      </c>
+      <c r="D10" s="6">
         <v>2000000000</v>
       </c>
       <c r="E10" s="2">
         <v>95000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>21052.63157894737</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="17">
+        <v>210</v>
+      </c>
+      <c r="D11" s="6">
         <v>37000000</v>
       </c>
       <c r="E11" s="2">
         <v>3300</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>11212.121212121212</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="17">
+        <v>212</v>
+      </c>
+      <c r="D12" s="6">
         <v>5300000</v>
       </c>
       <c r="E12" s="2">
         <v>220</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>24090.909090909092</v>
       </c>
@@ -6694,11 +6401,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D901C70A-C621-46A1-A7B6-C8036DB5BBD9}">
   <dimension ref="F4:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -6713,14 +6420,14 @@
   <sheetData>
     <row r="4" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="87">
+      <c r="H5" s="16"/>
+      <c r="I5" s="76">
         <v>36543.213296398892</v>
       </c>
     </row>
@@ -6729,9 +6436,9 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="18">
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
         <v>16756.024254389882</v>
       </c>
     </row>
@@ -6740,9 +6447,9 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="18">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7">
         <v>450</v>
       </c>
     </row>
@@ -6751,9 +6458,9 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="18">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7">
         <v>5000</v>
       </c>
     </row>
@@ -6762,33 +6469,33 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="18">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7">
         <v>103860.04567213666</v>
       </c>
     </row>
     <row r="10" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I10" s="4">
         <v>666240469384.85974</v>
       </c>
     </row>
     <row r="11" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="28"/>
-      <c r="G11" s="28" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="95">
+      <c r="H11" s="17"/>
+      <c r="I11" s="84">
         <v>157159.28322292544</v>
       </c>
     </row>
     <row r="12" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -6796,16 +6503,16 @@
     </row>
     <row r="13" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="I13">
         <v>1150</v>
       </c>
-      <c r="M13" s="96"/>
+      <c r="M13" s="85"/>
     </row>
     <row r="14" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="I14">
         <v>70</v>
@@ -6813,22 +6520,22 @@
     </row>
     <row r="15" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="H15" t="s">
-        <v>260</v>
-      </c>
-      <c r="I15" s="63">
+        <v>245</v>
+      </c>
+      <c r="I15" s="52">
         <f>((I12+1)*I13)/(I12+(I13/I14))/1150</f>
         <v>0.36842105263157898</v>
       </c>
     </row>
     <row r="16" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="H16" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -6836,10 +6543,10 @@
     </row>
     <row r="17" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H17" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -6847,10 +6554,10 @@
     </row>
     <row r="18" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -6858,10 +6565,10 @@
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="H19" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="I19">
         <v>14</v>
@@ -6869,102 +6576,102 @@
     </row>
     <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>255</v>
-      </c>
-      <c r="I20" s="18">
+        <v>240</v>
+      </c>
+      <c r="I20" s="7">
         <f>I11*1.78*9.81/6</f>
         <v>457380.66196368</v>
       </c>
     </row>
     <row r="21" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="H21" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="I21">
         <v>0.123</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="7">
         <f>0.068*I6^1.7851</f>
         <v>2360894.2241932303</v>
       </c>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="I22" s="98">
+      <c r="F22" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="87">
         <f>0.0684*(((I6^1.7851)*(I15^-0.0645))+I5^0.9062)*I16^0.6921+0.4528</f>
         <v>4093524.173559926</v>
       </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>261</v>
-      </c>
-      <c r="I23" s="63">
+        <v>246</v>
+      </c>
+      <c r="I23" s="52">
         <f>0.45*I6</f>
         <v>7540.2109144754468</v>
       </c>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>257</v>
-      </c>
-      <c r="I24" s="94">
+        <v>242</v>
+      </c>
+      <c r="I24" s="83">
         <f>0.0135*1^0.4118*I20^0.471*I9^0.3574</f>
         <v>388.33211569383519</v>
       </c>
     </row>
     <row r="25" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>258</v>
-      </c>
-      <c r="I25" s="94">
+        <v>243</v>
+      </c>
+      <c r="I25" s="83">
         <f>0.4078*((I9*I15)^0.75)*(2^-1.0836)*(1^-0.1739)</f>
         <v>526.43630156825884</v>
       </c>
     </row>
     <row r="26" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>259</v>
-      </c>
-      <c r="I26" s="94">
+        <v>244</v>
+      </c>
+      <c r="I26" s="83">
         <f>0.00001139*6^3.088*I6^0.806</f>
         <v>7.3136907938586084</v>
       </c>
     </row>
     <row r="27" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>263</v>
-      </c>
-      <c r="H27" s="63">
+        <v>248</v>
+      </c>
+      <c r="H27" s="52">
         <f>1850/1012</f>
         <v>1.8280632411067195</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="7">
         <f>(I6-0.45*I6)*H27</f>
         <v>16847.089603598524</v>
       </c>
     </row>
     <row r="29" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/sizing calculator max_tons.xlsx
+++ b/sizing calculator max_tons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\ORLA_Lander_Mission_Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE9CBE0-597E-4AFB-AAE7-A255B262FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E63ABD-4E40-404D-A0A7-57C37339F460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
+    <workbookView minimized="1" xWindow="1665" yWindow="1665" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="3" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sizing Calcs" sheetId="1" r:id="rId1"/>

--- a/sizing calculator max_tons.xlsx
+++ b/sizing calculator max_tons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\ORLA_Lander_Mission_Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E63ABD-4E40-404D-A0A7-57C37339F460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EA69A1-EEFC-4697-B4DD-0491B5E78710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1665" yWindow="1665" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="3" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sizing Calcs" sheetId="1" r:id="rId1"/>
@@ -1576,6 +1576,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1586,9 +1589,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1918,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01502004-969A-48C7-A58A-4DFE112F2B59}">
   <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="E24" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1954,36 +1954,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="J1" s="92" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="J1" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="Q1" s="92" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="Q1" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="W1" s="92" t="s">
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="W1" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AC1" s="89" t="s">
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AC1" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="92"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -3083,18 +3083,18 @@
     <row r="42" spans="4:32" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="4:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="W44" s="88" t="s">
+      <c r="W44" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="X44" s="88"/>
-      <c r="Y44" s="88"/>
-      <c r="Z44" s="88"/>
-      <c r="AC44" s="88" t="s">
+      <c r="X44" s="89"/>
+      <c r="Y44" s="89"/>
+      <c r="Z44" s="89"/>
+      <c r="AC44" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="AD44" s="88"/>
-      <c r="AE44" s="88"/>
-      <c r="AF44" s="88"/>
+      <c r="AD44" s="89"/>
+      <c r="AE44" s="89"/>
+      <c r="AF44" s="89"/>
     </row>
     <row r="45" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W45" s="2" t="s">
@@ -3123,24 +3123,24 @@
       </c>
     </row>
     <row r="46" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="88" t="s">
+      <c r="D46" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="J46" s="88" t="s">
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="J46" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="Q46" s="92" t="s">
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="Q46" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="R46" s="92"/>
-      <c r="S46" s="92"/>
-      <c r="T46" s="92"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="88"/>
       <c r="W46" s="16" t="s">
         <v>125</v>
       </c>
@@ -4951,16 +4951,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="W44:Z44"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="Q1:T1"/>
     <mergeCell ref="Q46:T46"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="J46:M46"/>
-    <mergeCell ref="W44:Z44"/>
-    <mergeCell ref="AC44:AF44"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4972,7 +4972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAA59C2-44B5-40C0-B117-24B7299CEE07}">
   <dimension ref="B7:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -5531,7 +5531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D685C4A-6611-45E2-BB7C-3CFB0014F712}">
   <dimension ref="C2:L13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -5819,7 +5819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1ABFC45-A3E7-4C9B-8682-7F494A0D9F79}">
   <dimension ref="C3:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
